--- a/beta_bruteforce_3x3_35x35.xlsx
+++ b/beta_bruteforce_3x3_35x35.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="beta_vs_rrmse" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Optimal Beta vs Sum under PSF" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="beta_vs_rrmse_beta_0.001-100_tr" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Optimal Beta vs Sum under PSF b" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="beta_vs_rrmse 1_500000" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Optimal Beta vs Sum under PSF 1" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t xml:space="preserve">Beta</t>
   </si>
@@ -126,13 +128,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,13 +148,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -203,25 +211,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -234,14 +258,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -316,372 +332,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Beta vs Sum Under PSF Squared (supports 3x3 to 17x17)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Beta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.6864238</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5080988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.175835</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7132716</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2427835</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5823364</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7644463</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>58.4803547642573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>743.688811330554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3419.95189335339</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9457.41609003176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43491.1855208196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72323.1770876205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>139835.922209171</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="13262592"/>
-        <c:axId val="81939906"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="13262592"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Sum under PSF (squared)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81939906"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="81939906"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>"Optimal" Beta (log scale)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13262592"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="36000">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -724,7 +375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$E$1</c:f>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -791,6 +442,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -811,6 +463,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -829,6 +482,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -858,7 +512,1287 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$B$3:$B$9</c:f>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.88815518030808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.42668455117884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.663801734674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.4102033000948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.4380301325168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="55740329"/>
+        <c:axId val="12856253"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55740329"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Sum under PSF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12856253"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="12856253"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>"Optimal" Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55740329"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="36000">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Beta vs Sum Under PSF Squared (supports 3x3 to 17x17)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05193461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.026381781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.016265688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.011225426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.008178648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.006463758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.005479929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.88815518030808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.42668455117884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.663801734674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.4102033000948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.4380301325168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="59355592"/>
+        <c:axId val="60800978"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59355592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Sum under PSF (squared)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60800978"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60800978"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>"Optimal" Beta (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59355592"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="36000">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Beta vs PSF Support (3x3 to 17x17)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF b'!$E$3:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.88815518030808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.42668455117884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.663801734674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.4102033000948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.4380301325168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88862381627434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88862381627434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88862381627434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.661474064123015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.60371874375133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="18529481"/>
+        <c:axId val="49659945"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="18529481"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>PSF Support</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49659945"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49659945"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>"Optimal" Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18529481"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="36000">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Beta vs Sum Under PSF (supports 3x3 to 17x17)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -888,7 +1822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Optimal Beta vs Sum under PSF'!$E$3:$E$9</c:f>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -918,11 +1852,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38043729"/>
-        <c:axId val="72180082"/>
+        <c:axId val="87722022"/>
+        <c:axId val="9116926"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38043729"/>
+        <c:axId val="87722022"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -966,7 +1900,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -988,12 +1922,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72180082"/>
+        <c:crossAx val="9116926"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72180082"/>
+        <c:axId val="9116926"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1037,7 +1971,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1059,9 +1993,375 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38043729"/>
+        <c:crossAx val="87722022"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="36000">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Beta vs Sum Under PSF Squared (supports 3x3 to 17x17)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.6864238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5080988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.175835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7132716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2427835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5823364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7644463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimal Beta vs Sum under PSF 1'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>58.4803547642573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>743.688811330554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3419.95189335339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9457.41609003176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43491.1855208196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72323.1770876205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139835.922209171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="6863888"/>
+        <c:axId val="82740251"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="6863888"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Sum under PSF (squared)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82740251"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82740251"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>"Optimal" Beta (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6863888"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1115,15 +2415,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>375480</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>907560</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2250360</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:colOff>2782080</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1131,8 +2431,103 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
+        <a:off x="907560" y="13934520"/>
+        <a:ext cx="6994440" cy="4109760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>484200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8466840" y="3656880"/>
+        <a:ext cx="6986520" cy="4566240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2547000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="672480" y="3631320"/>
+        <a:ext cx="6994440" cy="4109760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2250000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
         <a:off x="375480" y="4119840"/>
-        <a:ext cx="6994800" cy="4110120"/>
+        <a:ext cx="6994440" cy="4109760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1151,18 +2546,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
+      <xdr:colOff>560160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8239680" y="3027960"/>
-        <a:ext cx="6984720" cy="4566600"/>
+        <a:ext cx="6986520" cy="4566240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1180,10 +2575,2856 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:R49"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O49" activeCellId="0" sqref="O49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.691669941827247</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1.74478438461668</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>3.1637396304614</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>3.31902683291898</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2.92000551644755</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>2.12907845048473</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2.32042369413982</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1.91570136563915</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1.77102101906054</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1.82011717111003</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1.81294987844404</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1.80953671233738</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1.79759398174085</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1.78741374999292</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1.77533215259164</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1.77323609560856</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1.77134905786156</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>0.0013433993325989</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.691196015165133</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1.74630598451998</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>3.13479998533274</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3.22687501758541</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2.9211125299651</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>2.10216890715567</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>2.30960017330394</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1.89627651269935</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1.73651425270772</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.73977647645237</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1.73424718100054</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1.72675654569939</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1.71103666901027</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1.69900465434355</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1.686030760519</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1.68368933937631</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1.67854230731971</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>0.00180472176682717</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.690576568773479</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1.746388304744</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>3.10147026587605</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>3.12060922294084</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>2.92476687368978</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>2.07865481950604</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>2.29301988849074</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.87316193722118</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1.69503948134353</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1.7073948793891</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1.64852717329154</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>1.63710538460235</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>1.61673048245999</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1.60280003838856</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1.60686522559992</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1.61908607112757</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1.60677897068915</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>0.00242446201708233</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.689752163468655</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1.74411365611517</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>3.06241245818873</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>2.99908177224288</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>2.93135249525116</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>2.05827767104489</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>2.27012988432306</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1.85927444003249</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1.64595261762894</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1.66384740758467</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1.63952642914261</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1.62169707937994</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>1.59548124631153</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>1.58638047802952</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>1.56567884766923</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>1.57341275746238</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>1.5664965904698</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>0.00325702065565978</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.688657398050679</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.73817184913814</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>3.01565973397435</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>2.86086134808217</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>2.94084748436706</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>2.07378097644065</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>2.28063408423804</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1.84734616840521</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1.65979669241962</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1.60872120595256</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1.64560395836646</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1.63515847260199</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1.61221901950668</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1.59605302498751</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1.56531734299548</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1.5450113436066</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1.52558552533192</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>0.00437547937507418</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.68720173709265</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1.7267984870371</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>2.9586626180477</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>2.80343738428388</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>2.95274790231413</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>2.09940565224235</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>2.28612664529282</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1.83230941122371</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1.68136437646902</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1.54225958982261</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>1.64644068257834</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1.64446623581954</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1.62416150602364</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1.60057210679504</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1.55997705137833</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1.54017594026006</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1.52268873393658</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>0.00587801607227491</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.685280649658976</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1.70770912169273</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>2.88831721492936</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>2.7676239424785</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>2.96604707682491</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>2.12734195402204</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>2.28123385038442</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1.81498742034173</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1.70278808078213</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1.49574185792672</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>1.6414383597775</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1.64884431154889</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>1.63067766147984</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>1.59953453748055</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>1.54986558995327</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>1.53016851081536</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>1.5153234927723</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>0.00789652286849972</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.682743198486376</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1.67806778977484</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>2.80111244716281</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>2.72772755613383</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>2.97926180163278</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>2.1556668512706</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>2.26430786036392</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.79640721722529</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1.72433607158985</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.48635038613083</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1.63027472789254</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1.64745976254469</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>1.6310481724968</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>1.5925516153263</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>1.5351964444981</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>1.51524296717143</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>1.50359548053588</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>0.0106081835513945</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.679411755412013</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1.63458964959764</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>2.69329587128217</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>2.68222319126061</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2.99039212049846</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>2.18234623527654</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>2.23412234999462</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1.7775706752186</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1.74597152842586</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1.49442895365102</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>1.61280238828181</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>1.63929004743679</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>1.62428515204442</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>1.57903988052679</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>1.51593258683417</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>1.51338574526646</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>1.52259708575902</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>0.01425102670303</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.675072438595712</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1.57368588801653</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>2.56111106068959</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>2.62876922898441</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>2.99688694324478</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>2.20534024255213</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>2.1897640567091</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1.76437073283475</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1.78680541255899</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1.53630930750836</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1.58884648985426</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1.62298773855181</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1.60894890427008</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1.55800309313668</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1.54127233657983</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1.55681252440218</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1.56352186245963</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>0.0191448197616996</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.669467291112656</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1.49174807887625</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>2.4010329361113</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>2.59608628079943</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>2.99559393148216</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>2.22263327622063</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>2.13049498447174</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1.76264303411249</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1.82566408377987</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1.58674257885411</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>1.55795268298511</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>1.59680764654824</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>1.58308196634992</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>1.56896518874334</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>1.57588190320942</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>1.59023405043463</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>1.59429011365558</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>0.0257191380905934</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.66230919854195</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1.38548708811128</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>2.20999306813304</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>2.5568551984827</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>2.98067905812733</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>2.23215688646038</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>2.08333543129975</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1.75750363558898</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1.85454435654333</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1.62775753484487</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>1.55072540685061</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>1.55686733532779</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>1.56603792621517</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>1.57267749585781</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>1.5684703418324</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>1.57142342391062</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>1.56833519108461</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>0.0345510729459222</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0.653292241247838</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1.25418907864595</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1.98552442778096</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>2.49936400668231</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>2.94711179525117</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>2.23172099117916</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>2.04727127825345</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1.74643592109835</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1.83452892329545</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1.62239731192707</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>1.53227259724176</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>1.51198230004934</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>1.51938824199479</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>1.52591013856897</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>1.52344339464274</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>1.52643347095328</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>1.52148866086167</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>0.0464158883361278</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0.642117231611164</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>1.20663339582989</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1.72594553199321</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>2.42283698886033</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2.88999169308704</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>2.19213364841094</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1.95413907344356</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1.72596899251573</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>1.77851584234467</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1.58375045467245</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>1.48929404628607</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>1.45855996531447</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>1.4597211089773</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>1.46494033863979</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>1.46342112548934</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>1.46595253535618</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>1.45953278506638</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>0.0623550734127391</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0.627987491077575</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1.1275733024163</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1.47509005075917</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>2.32670359280635</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>2.74562386668508</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>2.10970253476457</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1.78729059377697</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1.64519435656293</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1.70925259720102</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.53175746938613</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>1.43247618284203</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>1.39090443915018</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>1.38468795588753</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>1.38732894764652</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>1.38581274990394</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>1.38731494177185</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>1.37972844143468</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>0.0837677640068292</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0.609182794930344</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1.02027971451521</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1.2962663478486</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>2.21046472134492</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>2.57930201493982</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>2.01383292138351</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1.62733375539742</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1.54643718191953</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>1.62382481989044</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1.46427593193193</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>1.35970859892182</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>1.30720009399002</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>1.29268378305878</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>1.29145968048906</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>1.28889466356547</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>1.28873957748129</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>1.28019507971884</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>0.112533558260077</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.587380495229958</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.908335287242326</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1.26307387389717</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>2.07363243225997</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2.39139786858283</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1.90353836841216</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1.62581865122914</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1.43346604088588</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>1.51955001205263</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1.37939134485102</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>1.27944249167003</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>1.21663795161723</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>1.19076155555425</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>1.18782500245958</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>1.19064515687612</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>1.1931357167583</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>1.18944244608584</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>0.151177507061566</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0.562689224586151</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0.817265854485691</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1.202653339339</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1.96592317647682</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>2.18338378296418</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1.77892392466334</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1.68006162595245</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1.38905377246047</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1.40749582969483</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.32222592847094</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>1.23921974762266</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>1.17230609627673</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>1.13936104800924</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>1.13055374101117</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>1.13022588135488</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>1.13008767699764</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>1.12491555575367</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>0.203091762090473</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0.535372834018324</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.741352534643093</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1.12292474268654</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1.8288637997085</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1.95767861513511</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1.82607227030778</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1.73213882580258</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1.42039132150623</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1.29108427751467</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.26491587654417</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>1.18266100732977</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>1.11279455080938</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>1.0735997387987</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>1.05874932570604</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>1.05445837849151</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>1.05124312640614</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>1.04452783793375</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>0.272833337648677</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0.505850072656815</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.664081350807027</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1.09932250758013</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1.66702564676661</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1.71735074859468</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1.87621830045836</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1.77388577814318</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1.46193555991856</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1.17498848147535</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.18970207918709</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>1.10984471535638</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>1.03873748696756</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.994534424678395</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0.973903958255367</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>0.965221244871506</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>0.958812138955929</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0.957207495771229</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>0.366524123707963</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0.474733840565245</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.588907774361125</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1.05083757437232</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1.47825506152034</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1.50566116668856</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1.89645972707064</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1.79708738701132</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1.48139473641897</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1.1671631977352</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.09683553669283</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>1.02182610325631</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.951855909605993</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.943183225931955</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>0.943927814796406</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0.954036793192924</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0.962191382119969</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0.967507603834706</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>0.492388263170674</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0.442930801423978</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.519674131061073</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.972365271287588</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1.26037703128701</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1.54417588746309</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1.91050992026191</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1.79420385892299</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1.47270721570178</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1.17877511023425</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.01241407252116</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.964827347301187</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.942779472262657</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0.945856829465493</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>0.942682903118553</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>0.946847721606032</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0.952025661520083</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0.953907426885256</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>0.661474064123015</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0.411807614632429</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0.460512299277312</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.864671363939221</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1.15750314275026</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1.5634901416133</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1.92596763646758</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>1.75890005809699</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1.43112926075863</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>1.15916957850593</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.00833124618908</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0.958072629313273</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0.92559483929079</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>0.920204261708261</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>0.912302675128331</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>0.910671249964995</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>0.92264169325216</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>0.936714142146698</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>0.88862381627434</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0.383364307704386</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.415518417546121</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.728019656613559</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1.07819183622871</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1.55793837946166</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1.91500890282414</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1.6986502460025</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1.37351410446126</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1.14799954078096</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>0.995241210283113</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>0.945811684253041</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>0.915592311065312</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0.917799331309492</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>0.921747654129483</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>0.92604497007656</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>0.934823422049579</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>0.945413364848073</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>1.19377664171444</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0.360261713274149</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.407896167141937</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.5724490363397</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.96670218471215</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1.52200949612825</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1.82984054176305</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>1.61057217906169</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1.34752524018667</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>1.15271819969403</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1.01338463544204</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0.963684098630266</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>0.926559923109724</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>0.921378860504783</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>0.919761244460321</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>0.91868109114355</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0.923614791237644</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>0.930278435945296</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>0.345467782389041</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.407542614324103</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.543115860547463</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.824286747552758</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1.43488397171611</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1.71049101402313</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>1.51654510976728</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1.3093267701997</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1.13556198932126</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1.01228028727524</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0.957804329616928</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0.919061353497848</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>0.901609272149175</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>0.894250630793023</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>0.904302939186696</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>0.922667686285898</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>0.929013515251828</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>2.15443469003188</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0.355684596083777</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.408151466027002</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.540674711242401</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.673457068895963</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1.28388208346315</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1.5657836814298</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>1.43619965212594</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1.24324395129732</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>1.10658063483647</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1.0248315038262</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0.978072499035747</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0.944008639447445</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>0.922428161848941</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>0.919065751879196</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0.917434208340476</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>0.923810398325767</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>0.931046626211161</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>2.89426612471675</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0.373844280357229</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.411422436780024</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.529610368935071</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.639189752002165</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1.15719518911017</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1.38804912916743</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>1.3243595123613</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1.23936776440574</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>1.15333777041698</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1.07208053270339</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>1.01830063577995</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0.980613470848241</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>0.952204837030537</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>0.938105637775239</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>0.93316147654391</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>0.937895808161704</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0.939292099146865</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>3.88815518030808</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0.396190651097896</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.417282733746808</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0.509210310851969</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.618790750677036</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1.08285687956891</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1.18908722920383</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>1.23001239463994</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1.21979183421464</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>1.16927096204361</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1.08633948236788</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>1.0355500856858</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>1.00228626357593</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>0.976830589355196</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>0.965504582737506</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>0.96686423569226</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>0.966772742770706</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>0.968413802907153</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>5.22334507426684</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.415022046735701</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.428199544288645</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.51591691610917</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.592328507001167</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.947453734646479</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1.07854792301893</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1.17957931302355</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1.20275993355788</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1.15680182146265</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.10238894304383</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>1.0547863757583</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1.02102290953009</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>0.992728440803067</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>0.986015548014913</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>0.979722057984501</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>0.979102086005935</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>0.980889869103998</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>7.01703828670382</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0.433151809943079</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0.449673310494435</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.523931693760932</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.570352925162849</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.7902003573183</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0.963706587746099</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1.12842290723745</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1.17051105800568</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>1.15900709916528</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1.10243571862285</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>1.05559818366411</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1.02506250959722</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>1.00857906577574</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>0.996591243469134</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>0.994382075622717</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>0.992115261178856</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>0.991276171848052</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>9.42668455117884</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0.455488648571577</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0.476742403858476</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.529477612723788</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0.554930621668035</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.65985476956614</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0.888058586418859</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1.09784818027519</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1.14592575307779</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1.13184009992037</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1.1097438281289</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>1.07842684654281</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>1.05321752086841</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>1.04189374961106</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>1.03072031473497</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>1.01964569053833</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>1.01185304262932</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>1.00679864648446</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>12.663801734674</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.481605676616977</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0.505684209516762</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.540870762865902</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.55800735354046</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.615598690678939</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.832605697624448</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1.04182169275289</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1.11355848803626</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>1.12258442702704</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1.10725265297724</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>1.09913103103802</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>1.07610840056032</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>1.06030717635992</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>1.04521414271527</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>1.03469264051516</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>1.02837782177783</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>1.02198589511056</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>17.0125427985259</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0.510922841919324</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0.535814172497557</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0.5567638995302</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0.570271502124341</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.618160488024326</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0.813426118038807</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1.00624822559956</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1.06422339485743</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1.09967867153428</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1.12230097377989</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>1.11363737251651</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>1.08252116398046</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>1.07253506355507</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>1.05857207484994</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>1.04473397179797</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>1.03640636260129</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>1.03076474011588</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>22.8546386413499</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0.542440507643233</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0.566630367101948</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0.574758438418184</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.585661308394589</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.615328876616997</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0.77881536735172</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0.956618527951506</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1.039149886202</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>1.09256405103493</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1.11522473413915</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>1.11377883811033</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>1.09734835227985</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>1.07905878915073</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>1.06785304936159</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>1.05802858580921</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>1.0497955046089</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>1.04137995027942</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>30.7029062975785</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0.57565704013056</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.595907365819131</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0.59537278996939</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.603394562553756</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.618549953564957</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0.752800350588739</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0.917832900670212</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1.00406084691737</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>1.07380797912085</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1.1133146612272</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>1.11943330195164</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>1.09638909720939</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>1.06953275902631</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>1.05648454529677</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>1.04527351891493</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>1.03535528010315</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>1.02571603690241</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>41.2462638290135</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0.610148898402507</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0.620891136277907</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>0.618584084315263</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.62426590531101</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.636839135268886</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0.735203161598671</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0.88608448293975</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>0.985847755101386</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>1.06512582874142</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1.1022579731898</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>1.09777620669222</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>1.08467051630598</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>1.06691000364689</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>1.05196854755695</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>1.03856041862307</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>1.02838776445085</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>1.02067996880975</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>55.4102033000948</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0.645481857508959</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0.648074758591326</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>0.644405846625148</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0.648020033664226</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.658242333707676</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0.722771909870851</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0.870527847593852</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>0.97218998607854</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1.04826124347258</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1.08251482517085</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>1.09474004471255</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>1.08052454907663</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>1.05893880113528</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>1.04973771095359</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>1.05581328841047</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>1.05854999663296</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>1.05913892300487</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>74.4380301325168</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0.680981001201566</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>0.67801302792512</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0.673246016942284</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.675333649772135</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.68406410201245</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0.723519186376718</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>0.86251941488164</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0.959719221723005</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>1.0347227129966</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1.07175158410568</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>1.07258814506051</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>1.07831092292312</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>1.10254627119374</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>1.1108217695209</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>1.1141319051825</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>1.11409312145719</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>1.11286500365342</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0.715071814246479</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.711145770734628</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0.705668045325624</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0.706946428226514</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0.714416725270065</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0.738692905074562</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0.864644177438679</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>0.957308986969966</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>1.0206256853673</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1.04713784745955</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>1.08871433378002</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>1.13814951061262</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>1.16475627826898</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>1.17260845917993</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>1.17529928767553</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>1.17399202924469</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>1.17164002016353</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">MIN(B2:B41)</f>
+        <v>0.345467782389041</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">MIN(C2:C41)</f>
+        <v>0.407542614324103</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">MIN(D2:D41)</f>
+        <v>0.509210310851969</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">MIN(E2:E41)</f>
+        <v>0.554930621668035</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">MIN(F2:F41)</f>
+        <v>0.615328876616997</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">MIN(G2:G41)</f>
+        <v>0.722771909870851</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">MIN(H2:H41)</f>
+        <v>0.86251941488164</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">MIN(I2:I41)</f>
+        <v>0.957308986969966</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">MIN(J2:J41)</f>
+        <v>1.0206256853673</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">MIN(K2:K41)</f>
+        <v>0.995241210283113</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">MIN(L2:L41)</f>
+        <v>0.945811684253041</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <f aca="false">MIN(M2:M41)</f>
+        <v>0.915592311065312</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">MIN(N2:N41)</f>
+        <v>0.901609272149175</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">MIN(O2:O41)</f>
+        <v>0.894250630793023</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">MIN(P2:P41)</f>
+        <v>0.904302939186696</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">MIN(Q2:Q41)</f>
+        <v>0.92264169325216</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">MIN(R2:R41)</f>
+        <v>0.929013515251828</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.14446498</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <f aca="false">A2+2</f>
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.05193461</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <f aca="false">A3+2</f>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.026381781</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>3.88815518030808</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <f aca="false">A4+2</f>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.016265688</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>9.42668455117884</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <f aca="false">A5+2</f>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.011225426</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>12.663801734674</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <f aca="false">A6+2</f>
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.008178648</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>55.4102033000948</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <f aca="false">A7+2</f>
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.006463758</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>74.4380301325168</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <f aca="false">A8+2</f>
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.005479929</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <f aca="false">A9+2</f>
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.0047733476</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <f aca="false">A10+2</f>
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.004331706</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.88862381627434</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <f aca="false">A11+2</f>
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.0040415972</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.88862381627434</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <f aca="false">A12+2</f>
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.0038063643</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.88862381627434</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <f aca="false">A13+2</f>
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.0036410086</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <f aca="false">A14+2</f>
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.0035212692</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <f aca="false">A15+2</f>
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.0034070981</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <f aca="false">A16+2</f>
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.0033153873</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.661474064123015</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <f aca="false">A17+2</f>
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.00323545</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1.60371874375133</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1192,58 +5433,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3411,7 +7652,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -3494,440 +7735,440 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="9" t="n">
         <v>3.598914</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="10" t="n">
         <v>1.8711367</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="9" t="n">
         <v>12.9521813172301</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="11" t="n">
         <v>21.1474252688113</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <f aca="false">A2+2</f>
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="9" t="n">
         <v>7.1921515</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="10" t="n">
         <v>2.6864238</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="9" t="n">
         <v>51.7270438675098</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="11" t="n">
         <v>58.4803547642573</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <f aca="false">A3+2</f>
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="9" t="n">
         <v>11.531447</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="10" t="n">
         <v>3.5080988</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="9" t="n">
         <v>132.974279383053</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="11" t="n">
         <v>743.688811330554</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <f aca="false">A4+2</f>
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="9" t="n">
         <v>16.022692</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="10" t="n">
         <v>4.175835</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="9" t="n">
         <v>256.726650168366</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="11" t="n">
         <v>3419.95189335339</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <f aca="false">A5+2</f>
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="9" t="n">
         <v>20.490843</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="10" t="n">
         <v>4.7132716</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="9" t="n">
         <v>419.874639441729</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="11" t="n">
         <v>9457.41609003176</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <f aca="false">A6+2</f>
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="9" t="n">
         <v>25.31863</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="10" t="n">
         <v>5.2427835</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="9" t="n">
         <v>641.033036141438</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="11" t="n">
         <v>43491.1855208196</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <f aca="false">A7+2</f>
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="9" t="n">
         <v>29.38769</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="10" t="n">
         <v>5.5823364</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="9" t="n">
         <v>863.636299464884</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="11" t="n">
         <v>72323.1770876205</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <f aca="false">A8+2</f>
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="9" t="n">
         <v>32.43331</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="10" t="n">
         <v>5.7644463</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="9" t="n">
         <v>1051.9196924172</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="11" t="n">
         <v>139835.922209171</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <f aca="false">A9+2</f>
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="9" t="n">
         <v>35.140015</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="10" t="n">
         <v>5.89423</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="9" t="n">
         <v>1234.8206294924</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="11" t="n">
         <v>139835.922209171</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <f aca="false">A10+2</f>
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="9" t="n">
         <v>37.09546</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="10" t="n">
         <v>5.960744</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="9" t="n">
         <v>1376.07307726145</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="11" t="n">
         <v>1236.7089320707</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <f aca="false">A11+2</f>
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="9" t="n">
         <v>38.534203</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="10" t="n">
         <v>6.0013075</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="9" t="n">
         <v>1484.88476814382</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="11" t="n">
         <v>1236.7089320707</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <f aca="false">A12+2</f>
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="9" t="n">
         <v>39.795944</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="10" t="n">
         <v>6.028203</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="9" t="n">
         <v>1583.71717587323</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="11" t="n">
         <v>1236.7089320707</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <f aca="false">A13+2</f>
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="9" t="n">
         <v>40.7399</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="10" t="n">
         <v>6.043125</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="9" t="n">
         <v>1659.73934459034</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="11" t="n">
         <v>1236.7089320707</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <f aca="false">A14+2</f>
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="9" t="n">
         <v>41.45851</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="10" t="n">
         <v>6.0523868</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="9" t="n">
         <v>1718.80816356861</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="11" t="n">
         <v>1236.7089320707</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <f aca="false">A15+2</f>
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="9" t="n">
         <v>42.176025</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="10" t="n">
         <v>6.0606036</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="9" t="n">
         <v>1778.81711775064</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="11" t="n">
         <v>3419.95189335339</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <f aca="false">A16+2</f>
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="9" t="n">
         <v>42.778496</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="10" t="n">
         <v>6.067156</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="9" t="n">
         <v>1829.99970193306</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="11" t="n">
         <v>3419.95189335339</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <f aca="false">A17+2</f>
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="9" t="n">
         <v>43.321663</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="10" t="n">
         <v>6.0721846</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="9" t="n">
         <v>1876.76647666661</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="11" t="n">
         <v>3419.95189335339</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="9"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="9"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="9"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="9"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="9"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
